--- a/Gates of Mansole/DifficultyCurve.xlsx
+++ b/Gates of Mansole/DifficultyCurve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11364" windowHeight="3960" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="11364" windowHeight="3048" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Difficulty Curve" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="401">
   <si>
     <t>Level</t>
   </si>
@@ -1207,19 +1207,175 @@
     <t>V OS</t>
   </si>
   <si>
-    <t>Level 1 - Assault</t>
-  </si>
-  <si>
     <t>Level 13 - Defend</t>
   </si>
   <si>
-    <t xml:space="preserve">  VVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  TTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VVOSE</t>
+    <t>VVVVOSE</t>
+  </si>
+  <si>
+    <t>TTTTOSE</t>
+  </si>
+  <si>
+    <t>VOSVVV</t>
+  </si>
+  <si>
+    <t>VVVVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   VVV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   VOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     VOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     TOSE</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>2.5s</t>
+  </si>
+  <si>
+    <t>VOS VE</t>
+  </si>
+  <si>
+    <t>TOE TS</t>
+  </si>
+  <si>
+    <t>MF=4</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>VOE  VOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VOE  VOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VOE  VOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   VOE  VO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VOE  V</t>
+  </si>
+  <si>
+    <t>TOS  TOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOS  TOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TOS  TOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TOS  TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TOS  T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   VVOE</t>
+  </si>
+  <si>
+    <t>VVVT</t>
+  </si>
+  <si>
+    <t>VOSTO</t>
+  </si>
+  <si>
+    <t>VVVTOS</t>
+  </si>
+  <si>
+    <t>TTTVOE</t>
+  </si>
+  <si>
+    <t>VOE TE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VOE T</t>
+  </si>
+  <si>
+    <t>TTTTOE</t>
+  </si>
+  <si>
+    <t>TOETTT</t>
+  </si>
+  <si>
+    <t>VOSVOS</t>
+  </si>
+  <si>
+    <t>TOETOE</t>
+  </si>
+  <si>
+    <t>Level 8 - Assault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TTOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     VVOSE</t>
+  </si>
+  <si>
+    <t>VOS VOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VOS VO</t>
+  </si>
+  <si>
+    <t>TOS TOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOS TO</t>
+  </si>
+  <si>
+    <t>VOSE VOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VOSE VOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VOSE VO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   VOSE V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSE S S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TTE S S</t>
+  </si>
+  <si>
+    <t>VEE S E VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VOS E VE</t>
+  </si>
+  <si>
+    <t>TOSVOE</t>
+  </si>
+  <si>
+    <t>VVSE S</t>
+  </si>
+  <si>
+    <t>VVOSEE</t>
+  </si>
+  <si>
+    <t>TTOSSE</t>
   </si>
 </sst>
 </file>
@@ -1661,11 +1817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108512384"/>
-        <c:axId val="108513920"/>
+        <c:axId val="181380224"/>
+        <c:axId val="181381760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108512384"/>
+        <c:axId val="181380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108513920"/>
+        <c:crossAx val="181381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1682,7 +1838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108513920"/>
+        <c:axId val="181381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,14 +1849,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108512384"/>
+        <c:crossAx val="181380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2540,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI16"/>
   <sheetViews>
-    <sheetView topLeftCell="EA1" workbookViewId="0">
-      <selection activeCell="EF3" sqref="EF3:EO7"/>
+    <sheetView topLeftCell="FR1" workbookViewId="0">
+      <selection activeCell="EQ12" sqref="EQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5424,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GC9"/>
   <sheetViews>
-    <sheetView topLeftCell="DX1" workbookViewId="0">
-      <selection activeCell="FV5" sqref="FV5"/>
+    <sheetView topLeftCell="FL1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7121,7 +7276,7 @@
         <v>37</v>
       </c>
       <c r="N6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>20</v>
@@ -8148,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HB11"/>
   <sheetViews>
-    <sheetView topLeftCell="GG1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="EU5" sqref="EU5"/>
+    <sheetView topLeftCell="GI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GV28" sqref="GV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11550,4049 +11705,3591 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HV11"/>
+  <dimension ref="A1:HA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GM10" sqref="GM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="10" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="10" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="10" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="10" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="116" width="10" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="10" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="10" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="135" max="137" width="10" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="141" max="142" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="2" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="10" bestFit="1" customWidth="1"/>
+    <col min="163" max="166" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="167" max="168" width="10" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="172" width="10" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="6" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="185" max="186" width="2" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="6" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="203" max="204" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="206" max="207" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="6" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.44140625" customWidth="1"/>
+    <col min="211" max="211" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:209" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>202</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="FE1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="FV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="GI1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>263</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>137</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>150</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>203</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>173</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:209" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="T2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
+      <c r="Y2">
         <v>200</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2">
+        <v>250</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2">
+        <v>250</v>
+      </c>
+      <c r="AX2" t="s">
         <v>26</v>
       </c>
-      <c r="M2">
+      <c r="AY2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="AZ2">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="BA2">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="BB2">
         <v>4</v>
       </c>
-      <c r="Q2">
+      <c r="BC2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="BD2">
         <v>6</v>
       </c>
-      <c r="S2">
+      <c r="BE2">
         <v>7</v>
       </c>
-      <c r="T2">
+      <c r="BF2">
         <v>8</v>
       </c>
-      <c r="U2">
+      <c r="BG2">
         <v>9</v>
       </c>
-      <c r="V2">
+      <c r="BH2">
         <v>10</v>
       </c>
-      <c r="W2">
+      <c r="BI2">
         <v>11</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="BJ2">
+        <v>12</v>
+      </c>
+      <c r="BK2">
+        <v>13</v>
+      </c>
+      <c r="BM2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="BN2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX2">
+        <v>250</v>
+      </c>
+      <c r="CA2" t="s">
         <v>26</v>
       </c>
-      <c r="AD2">
+      <c r="CB2">
         <v>1</v>
       </c>
-      <c r="AE2">
+      <c r="CC2">
         <v>2</v>
       </c>
-      <c r="AF2">
+      <c r="CD2">
         <v>3</v>
       </c>
-      <c r="AG2">
+      <c r="CE2">
         <v>4</v>
       </c>
-      <c r="AH2">
+      <c r="CF2">
         <v>5</v>
       </c>
-      <c r="AI2">
+      <c r="CG2">
         <v>6</v>
       </c>
-      <c r="AJ2">
+      <c r="CH2">
         <v>7</v>
       </c>
-      <c r="AK2">
+      <c r="CI2">
         <v>8</v>
       </c>
-      <c r="AL2">
+      <c r="CJ2">
         <v>9</v>
       </c>
-      <c r="AM2">
+      <c r="CK2">
         <v>10</v>
       </c>
-      <c r="AN2">
+      <c r="CL2">
         <v>11</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="CN2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="CR2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY2">
+        <v>250</v>
+      </c>
+      <c r="DB2" t="s">
         <v>26</v>
       </c>
-      <c r="AU2">
+      <c r="DC2">
         <v>1</v>
       </c>
-      <c r="AV2">
+      <c r="DD2">
         <v>2</v>
       </c>
-      <c r="AW2">
+      <c r="DE2">
         <v>3</v>
       </c>
-      <c r="AX2">
+      <c r="DF2">
         <v>4</v>
       </c>
-      <c r="AY2">
+      <c r="DG2">
         <v>5</v>
       </c>
-      <c r="AZ2">
+      <c r="DH2">
         <v>6</v>
       </c>
-      <c r="BA2">
+      <c r="DI2">
         <v>7</v>
       </c>
-      <c r="BB2">
+      <c r="DJ2">
         <v>8</v>
       </c>
-      <c r="BC2">
+      <c r="DK2">
         <v>9</v>
       </c>
-      <c r="BD2">
+      <c r="DL2">
         <v>10</v>
       </c>
-      <c r="BE2">
+      <c r="DM2">
         <v>11</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="DO2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="DP2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>99</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DZ2">
+        <v>250</v>
+      </c>
+      <c r="EC2" t="s">
         <v>26</v>
       </c>
-      <c r="BL2">
+      <c r="ED2">
         <v>1</v>
       </c>
-      <c r="BM2">
+      <c r="EE2">
         <v>2</v>
       </c>
-      <c r="BN2">
+      <c r="EF2">
         <v>3</v>
       </c>
-      <c r="BO2">
+      <c r="EG2">
         <v>4</v>
       </c>
-      <c r="BP2">
+      <c r="EH2">
         <v>5</v>
       </c>
-      <c r="BQ2">
+      <c r="EI2">
         <v>6</v>
       </c>
-      <c r="BR2">
+      <c r="EJ2">
         <v>7</v>
       </c>
-      <c r="BS2">
+      <c r="EK2">
         <v>8</v>
       </c>
-      <c r="BT2">
+      <c r="EL2">
         <v>9</v>
       </c>
-      <c r="BU2">
+      <c r="EM2">
         <v>10</v>
       </c>
-      <c r="BV2">
+      <c r="EN2">
         <v>11</v>
       </c>
-      <c r="BW2">
+      <c r="EP2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="EQ2" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>100</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>99</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FC2">
+        <v>250</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FG2">
+        <v>1</v>
+      </c>
+      <c r="FH2">
+        <v>2</v>
+      </c>
+      <c r="FI2">
+        <v>3</v>
+      </c>
+      <c r="FJ2">
+        <v>4</v>
+      </c>
+      <c r="FK2">
+        <v>5</v>
+      </c>
+      <c r="FL2">
+        <v>6</v>
+      </c>
+      <c r="FM2">
+        <v>7</v>
+      </c>
+      <c r="FN2">
+        <v>8</v>
+      </c>
+      <c r="FO2">
+        <v>9</v>
+      </c>
+      <c r="FP2">
+        <v>10</v>
+      </c>
+      <c r="FQ2">
+        <v>11</v>
+      </c>
+      <c r="FS2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="FT2" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>100</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>99</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GG2">
+        <v>300</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="GK2">
+        <v>1</v>
+      </c>
+      <c r="GL2">
+        <v>2</v>
+      </c>
+      <c r="GM2">
+        <v>3</v>
+      </c>
+      <c r="GN2">
+        <v>4</v>
+      </c>
+      <c r="GO2">
+        <v>5</v>
+      </c>
+      <c r="GP2">
+        <v>6</v>
+      </c>
+      <c r="GQ2">
+        <v>7</v>
+      </c>
+      <c r="GR2">
+        <v>8</v>
+      </c>
+      <c r="GS2">
+        <v>9</v>
+      </c>
+      <c r="GT2">
+        <v>10</v>
+      </c>
+      <c r="GU2">
+        <v>11</v>
+      </c>
+      <c r="GV2">
         <v>12</v>
       </c>
-      <c r="BX2">
+      <c r="GW2">
         <v>13</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="GX2">
+        <v>14</v>
+      </c>
+      <c r="GZ2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CA2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>26</v>
-      </c>
-      <c r="CE2">
-        <v>1</v>
-      </c>
-      <c r="CF2">
-        <v>2</v>
-      </c>
-      <c r="CG2">
-        <v>3</v>
-      </c>
-      <c r="CH2">
-        <v>4</v>
-      </c>
-      <c r="CI2">
-        <v>5</v>
-      </c>
-      <c r="CJ2">
-        <v>6</v>
-      </c>
-      <c r="CK2">
-        <v>7</v>
-      </c>
-      <c r="CL2">
-        <v>8</v>
-      </c>
-      <c r="CM2">
-        <v>9</v>
-      </c>
-      <c r="CN2">
-        <v>10</v>
-      </c>
-      <c r="CO2">
-        <v>11</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA2">
-        <v>150</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>26</v>
-      </c>
-      <c r="DE2">
-        <v>1</v>
-      </c>
-      <c r="DF2">
-        <v>2</v>
-      </c>
-      <c r="DG2">
-        <v>3</v>
-      </c>
-      <c r="DH2">
-        <v>4</v>
-      </c>
-      <c r="DI2">
-        <v>5</v>
-      </c>
-      <c r="DJ2">
-        <v>6</v>
-      </c>
-      <c r="DK2">
-        <v>7</v>
-      </c>
-      <c r="DL2">
-        <v>8</v>
-      </c>
-      <c r="DM2">
-        <v>9</v>
-      </c>
-      <c r="DN2">
-        <v>10</v>
-      </c>
-      <c r="DO2">
-        <v>11</v>
-      </c>
-      <c r="DQ2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="DR2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>26</v>
-      </c>
-      <c r="DV2">
-        <v>1</v>
-      </c>
-      <c r="DW2">
-        <v>2</v>
-      </c>
-      <c r="DX2">
-        <v>3</v>
-      </c>
-      <c r="DY2">
-        <v>4</v>
-      </c>
-      <c r="DZ2">
-        <v>5</v>
-      </c>
-      <c r="EA2">
-        <v>6</v>
-      </c>
-      <c r="EB2">
-        <v>7</v>
-      </c>
-      <c r="EC2">
-        <v>8</v>
-      </c>
-      <c r="ED2">
-        <v>9</v>
-      </c>
-      <c r="EE2">
-        <v>10</v>
-      </c>
-      <c r="EF2">
-        <v>11</v>
-      </c>
-      <c r="EH2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="EI2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>26</v>
-      </c>
-      <c r="EM2">
-        <v>1</v>
-      </c>
-      <c r="EN2">
-        <v>2</v>
-      </c>
-      <c r="EO2">
-        <v>3</v>
-      </c>
-      <c r="EP2">
-        <v>4</v>
-      </c>
-      <c r="EQ2">
-        <v>5</v>
-      </c>
-      <c r="ER2">
-        <v>6</v>
-      </c>
-      <c r="ES2">
-        <v>7</v>
-      </c>
-      <c r="ET2">
-        <v>8</v>
-      </c>
-      <c r="EU2">
-        <v>9</v>
-      </c>
-      <c r="EV2">
-        <v>10</v>
-      </c>
-      <c r="EW2">
-        <v>11</v>
-      </c>
-      <c r="EX2">
-        <v>12</v>
-      </c>
-      <c r="EY2">
-        <v>13</v>
-      </c>
-      <c r="FA2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="FB2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>100</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>99</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>38</v>
-      </c>
-      <c r="FK2">
-        <v>150</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>26</v>
-      </c>
-      <c r="FO2">
-        <v>1</v>
-      </c>
-      <c r="FP2">
-        <v>2</v>
-      </c>
-      <c r="FQ2">
-        <v>3</v>
-      </c>
-      <c r="FR2">
-        <v>4</v>
-      </c>
-      <c r="FS2">
-        <v>5</v>
-      </c>
-      <c r="FT2">
-        <v>6</v>
-      </c>
-      <c r="FU2">
-        <v>7</v>
-      </c>
-      <c r="FV2">
-        <v>8</v>
-      </c>
-      <c r="FW2">
-        <v>9</v>
-      </c>
-      <c r="FX2">
-        <v>10</v>
-      </c>
-      <c r="FY2">
-        <v>11</v>
-      </c>
-      <c r="GA2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="GB2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="GF2">
-        <v>1</v>
-      </c>
-      <c r="GG2">
-        <v>2</v>
-      </c>
-      <c r="GH2">
-        <v>3</v>
-      </c>
-      <c r="GI2">
-        <v>4</v>
-      </c>
-      <c r="GJ2">
-        <v>5</v>
-      </c>
-      <c r="GK2">
-        <v>6</v>
-      </c>
-      <c r="GL2">
-        <v>7</v>
-      </c>
-      <c r="GM2">
-        <v>8</v>
-      </c>
-      <c r="GN2">
-        <v>9</v>
-      </c>
-      <c r="GO2">
-        <v>10</v>
-      </c>
-      <c r="GP2">
-        <v>11</v>
-      </c>
-      <c r="GR2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="GS2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>100</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>99</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>38</v>
-      </c>
-      <c r="HB2">
-        <v>150</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="HF2">
-        <v>1</v>
-      </c>
-      <c r="HG2">
-        <v>2</v>
-      </c>
-      <c r="HH2">
-        <v>3</v>
-      </c>
-      <c r="HI2">
-        <v>4</v>
-      </c>
-      <c r="HJ2">
-        <v>5</v>
-      </c>
-      <c r="HK2">
-        <v>6</v>
-      </c>
-      <c r="HL2">
-        <v>7</v>
-      </c>
-      <c r="HM2">
-        <v>8</v>
-      </c>
-      <c r="HN2">
-        <v>9</v>
-      </c>
-      <c r="HO2">
-        <v>10</v>
-      </c>
-      <c r="HP2">
-        <v>11</v>
-      </c>
-      <c r="HQ2">
-        <v>12</v>
-      </c>
-      <c r="HR2">
-        <v>13</v>
-      </c>
-      <c r="HS2">
-        <v>14</v>
-      </c>
-      <c r="HU2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="HV2" s="6" t="s">
-        <v>261</v>
+      <c r="HA2" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:209" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="AG3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="AH3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AJ3" t="s">
         <v>43</v>
       </c>
-      <c r="I3">
+      <c r="AK3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="AN3">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="AO3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="BQ3">
+        <v>2</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX3">
+        <v>4</v>
+      </c>
+      <c r="CA3">
+        <v>2</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CY3">
+        <v>5</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="DH3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DI3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="DM3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="DP3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>43</v>
+      </c>
+      <c r="DZ3">
+        <v>7</v>
+      </c>
+      <c r="EC3">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="EE3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="EF3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="EG3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="EH3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="EI3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="EJ3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="EK3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EL3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="EM3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="EN3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="EP3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>231</v>
+      </c>
+      <c r="ET3">
+        <v>1</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>20</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>18</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="FC3">
+        <v>5</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="FH3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="FI3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="FK3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="FM3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="FN3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="FO3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y3" s="6" t="s">
+      <c r="FP3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="FQ3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FS3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP3" s="6" t="s">
+      <c r="FT3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>231</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>20</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>18</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>21</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>17</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>19</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>43</v>
+      </c>
+      <c r="GG3">
+        <v>7</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="GL3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="GM3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="GN3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="GO3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="GP3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="GR3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="GS3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="GT3" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GV3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="GW3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="GX3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="GZ3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BV3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BZ3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD3">
-        <v>2</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="CL3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="CM3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="CQ3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU3">
-        <v>2</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>21</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>43</v>
-      </c>
-      <c r="DA3">
-        <v>6</v>
-      </c>
-      <c r="DD3">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DG3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DH3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DJ3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DL3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="DM3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="DN3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DO3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DQ3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="DR3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DW3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DX3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DY3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EB3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="EC3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="ED3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EE3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EF3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EH3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="EI3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL3">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="EN3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="EO3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="EP3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="ER3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="ES3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="ET3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EU3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EV3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EW3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EX3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EY3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FA3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="FB3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="FE3">
-        <v>1</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>18</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>21</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>19</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>43</v>
-      </c>
-      <c r="FK3">
-        <v>4</v>
-      </c>
-      <c r="FN3">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="FP3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="FQ3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="FR3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="FS3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="FT3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="FU3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="FV3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="FW3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="FX3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FY3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GA3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="GB3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="GE3">
-        <v>0</v>
-      </c>
-      <c r="GF3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="GG3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="GH3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="GI3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="GK3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="GL3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="GM3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="GN3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="GO3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GP3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GR3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="GS3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="GV3">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>19</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>43</v>
-      </c>
-      <c r="HB3">
-        <v>7</v>
-      </c>
-      <c r="HE3">
-        <v>0</v>
-      </c>
-      <c r="HF3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="HG3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="HH3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="HK3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HM3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HO3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HP3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HQ3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HR3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HS3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="HV3" s="7" t="s">
-        <v>79</v>
+      <c r="HA3" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:209" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="U4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="AG4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AH4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AJ4" t="s">
         <v>105</v>
       </c>
-      <c r="I4">
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN4" s="6">
+        <v>5</v>
+      </c>
+      <c r="BQ4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="BR4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX4">
+        <v>4</v>
+      </c>
+      <c r="CA4">
+        <v>3</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CN4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO4" s="6">
+        <v>5</v>
+      </c>
+      <c r="CR4">
         <v>2</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="CS4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CY4">
+        <v>4</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DD4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="DE4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="DF4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="DG4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="DH4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DI4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DJ4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="DK4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DL4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DM4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DO4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP4" s="6">
+        <v>5</v>
+      </c>
+      <c r="DS4">
+        <v>2</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>19</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>105</v>
+      </c>
+      <c r="DZ4">
+        <v>4</v>
+      </c>
+      <c r="EC4">
+        <v>2</v>
+      </c>
+      <c r="ED4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="EE4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EF4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="EH4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="EI4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="EJ4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="EK4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EL4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="EN4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="EQ4" s="6">
+        <v>5</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>231</v>
+      </c>
+      <c r="ET4">
+        <v>2</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>18</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>20</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>19</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="FC4">
+        <v>4</v>
+      </c>
+      <c r="FF4">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FH4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="FI4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="FJ4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="FK4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="FM4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="FN4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y4" s="6" t="s">
+      <c r="FO4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FP4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="FS4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="FT4" s="6">
         <v>5</v>
       </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP4" s="6" t="s">
+      <c r="FW4">
+        <v>1</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>19</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>105</v>
+      </c>
+      <c r="GG4">
+        <v>5</v>
+      </c>
+      <c r="GJ4">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="GL4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="GM4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="GN4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="GO4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="GP4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="GR4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="GS4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="GT4" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="GV4" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="GW4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="GX4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="GZ4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="HA4" s="6">
         <v>5</v>
       </c>
-      <c r="AT4">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH4" s="6">
-        <v>5</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BV4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BZ4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA4" s="6">
-        <v>5</v>
-      </c>
-      <c r="CD4">
-        <v>3</v>
-      </c>
-      <c r="CE4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CF4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CG4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="CL4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CM4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CN4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CO4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="CR4" s="6">
-        <v>5</v>
-      </c>
-      <c r="CU4">
-        <v>3</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>21</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>17</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DA4">
-        <v>3</v>
-      </c>
-      <c r="DD4">
-        <v>2</v>
-      </c>
-      <c r="DE4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DF4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="DK4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="DL4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="DM4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="DN4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DO4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DQ4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="DR4" s="6">
-        <v>5</v>
-      </c>
-      <c r="DU4">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DX4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DY4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EB4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="ED4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EF4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EH4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="EI4" s="6">
-        <v>5</v>
-      </c>
-      <c r="EL4">
-        <v>2</v>
-      </c>
-      <c r="EM4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="EN4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EP4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="ER4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="ES4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="ET4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EU4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EV4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EW4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EX4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EY4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FA4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="FB4" s="6">
-        <v>5</v>
-      </c>
-      <c r="FE4">
-        <v>2</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>18</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>21</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>17</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="FK4">
-        <v>3</v>
-      </c>
-      <c r="FN4">
-        <v>2</v>
-      </c>
-      <c r="FO4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="FP4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="FQ4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="FR4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="FS4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="FT4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="FU4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="FV4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="FW4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="FX4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FY4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GA4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="GB4" s="6">
-        <v>5</v>
-      </c>
-      <c r="GE4">
-        <v>1</v>
-      </c>
-      <c r="GF4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="GG4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="GH4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GI4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GK4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="GL4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="GM4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="GN4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="GO4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GP4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GR4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="GS4" s="6">
-        <v>5</v>
-      </c>
-      <c r="GV4">
-        <v>1</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>105</v>
-      </c>
-      <c r="HB4">
-        <v>3</v>
-      </c>
-      <c r="HE4">
-        <v>1</v>
-      </c>
-      <c r="HF4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="HG4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="HH4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HI4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HK4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HL4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="HN4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HP4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HQ4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HR4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HS4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HU4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="HV4" s="6">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:209" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="6">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="AF5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="AG5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="AJ5" t="s">
         <v>108</v>
       </c>
-      <c r="I5">
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="AO5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN5" s="6">
+        <v>5</v>
+      </c>
+      <c r="BQ5">
+        <v>4</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX5">
+        <v>5</v>
+      </c>
+      <c r="CA5">
+        <v>4</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="CF5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CG5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CH5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CI5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO5" s="6">
+        <v>5</v>
+      </c>
+      <c r="CR5">
         <v>3</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="CS5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY5">
+        <v>5</v>
+      </c>
+      <c r="DB5">
+        <v>2</v>
+      </c>
+      <c r="DC5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DD5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="DE5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DF5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DH5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="DI5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="DJ5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="DK5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DL5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="DM5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="DO5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP5" s="6">
+        <v>3</v>
+      </c>
+      <c r="DS5">
+        <v>3</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>19</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>108</v>
+      </c>
+      <c r="DZ5">
+        <v>5</v>
+      </c>
+      <c r="EC5">
+        <v>3</v>
+      </c>
+      <c r="ED5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="EE5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="EF5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="EG5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="EH5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="EI5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="EJ5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="EK5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EL5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="EN5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ5" s="6">
+        <v>3</v>
+      </c>
+      <c r="ET5">
+        <v>5</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>19</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>108</v>
+      </c>
+      <c r="FC5">
+        <v>5</v>
+      </c>
+      <c r="FF5">
+        <v>2</v>
+      </c>
+      <c r="FG5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="FH5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="FI5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FJ5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="FK5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FL5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="FN5" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="FO5" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y5" s="6" t="s">
+      <c r="FP5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="FQ5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="FS5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="FT5" s="6">
+        <v>3</v>
+      </c>
+      <c r="FW5">
+        <v>2</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>20</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>19</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>108</v>
+      </c>
+      <c r="GG5">
         <v>5</v>
       </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP5" s="6" t="s">
+      <c r="GJ5">
+        <v>2</v>
+      </c>
+      <c r="GK5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="GL5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="GM5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="GN5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GO5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="GP5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="GR5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="GS5" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="GT5" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="GV5" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="GW5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="GX5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="GZ5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AQ5" s="6">
-        <v>3</v>
-      </c>
-      <c r="AT5">
-        <v>3</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH5" s="6">
-        <v>3</v>
-      </c>
-      <c r="BK5">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BV5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BZ5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA5" s="6">
-        <v>3</v>
-      </c>
-      <c r="CD5">
-        <v>4</v>
-      </c>
-      <c r="CE5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CF5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CG5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="CL5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CM5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CN5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CO5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CQ5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR5" s="6">
-        <v>3</v>
-      </c>
-      <c r="CU5">
-        <v>4</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>21</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>19</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA5">
-        <v>3</v>
-      </c>
-      <c r="DD5">
-        <v>3</v>
-      </c>
-      <c r="DE5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DF5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="DK5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="DL5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="DM5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="DN5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DO5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DQ5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR5" s="6">
-        <v>3</v>
-      </c>
-      <c r="DU5">
-        <v>2</v>
-      </c>
-      <c r="DV5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DX5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DY5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EB5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="ED5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EF5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EH5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI5" s="6">
-        <v>3</v>
-      </c>
-      <c r="EL5">
-        <v>3</v>
-      </c>
-      <c r="EM5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="EN5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EP5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="ER5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="ES5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="ET5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EU5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EV5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EW5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EX5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EY5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FA5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB5" s="6">
-        <v>3</v>
-      </c>
-      <c r="FE5">
-        <v>3</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>18</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>21</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>19</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>108</v>
-      </c>
-      <c r="FK5">
-        <v>3</v>
-      </c>
-      <c r="FN5">
+      <c r="HA5" s="6">
         <v>5</v>
       </c>
-      <c r="FO5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="FP5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="FQ5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="FR5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="FS5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="FT5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="FU5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="FV5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="FW5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="FX5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FY5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GA5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="GB5" s="6">
-        <v>3</v>
-      </c>
-      <c r="GE5">
-        <v>2</v>
-      </c>
-      <c r="GF5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="GG5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="GH5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GI5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GK5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="GL5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="GM5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="GN5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="GO5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GP5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GR5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="GS5" s="6">
-        <v>3</v>
-      </c>
-      <c r="GV5">
-        <v>2</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>19</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>108</v>
-      </c>
-      <c r="HB5">
-        <v>3</v>
-      </c>
-      <c r="HE5">
-        <v>2</v>
-      </c>
-      <c r="HF5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="HG5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="HH5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HI5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HK5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HL5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="HN5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HP5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HQ5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HR5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HS5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HU5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="HV5" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:209" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="U6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="AF6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="AG6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="AJ6" t="s">
         <v>109</v>
       </c>
-      <c r="I6">
+      <c r="AK6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="AN6">
         <v>4</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="AO6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD6" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="BI6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BQ6">
+        <v>5</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX6">
+        <v>4</v>
+      </c>
+      <c r="CA6">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CG6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CH6" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y6" s="6" t="s">
+      <c r="CI6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="CO6" s="6">
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="CR6">
+        <v>4</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY6">
         <v>5</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF6" s="2" t="s">
+      <c r="DB6">
+        <v>3</v>
+      </c>
+      <c r="DC6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="DD6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DF6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DH6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DI6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="DJ6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="DK6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DL6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="DM6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="DO6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DP6" s="6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>4</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>109</v>
+      </c>
+      <c r="DZ6">
+        <v>5</v>
+      </c>
+      <c r="EC6">
+        <v>4</v>
+      </c>
+      <c r="ED6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="EE6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EF6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="EG6" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI6" s="2" t="s">
+      <c r="EH6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="EI6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="EJ6" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP6" s="6" t="s">
+      <c r="EK6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="EL6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="EM6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="EN6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="EP6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="EQ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="ET6">
+        <v>6</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>109</v>
+      </c>
+      <c r="FC6">
+        <v>5</v>
+      </c>
+      <c r="FF6">
+        <v>3</v>
+      </c>
+      <c r="FG6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="FH6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FI6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FJ6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="FK6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FL6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="FN6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="FO6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="FP6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="FQ6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="FS6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="FT6" s="6">
         <v>0</v>
       </c>
-      <c r="AT6">
-        <v>4</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG6" s="6" t="s">
+      <c r="FW6">
+        <v>3</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>18</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>109</v>
+      </c>
+      <c r="GG6">
+        <v>5</v>
+      </c>
+      <c r="GJ6">
+        <v>3</v>
+      </c>
+      <c r="GK6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="GL6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="GM6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="GN6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="GO6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="GP6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="GR6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="GS6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="GT6" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GV6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="GW6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="GX6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="GZ6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="BH6" s="6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>3</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BZ6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
+      <c r="HA6" s="6">
         <v>5</v>
       </c>
-      <c r="CE6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="CF6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="CH6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CJ6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="CL6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="CM6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CN6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="CO6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="CQ6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="CR6" s="6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>5</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>19</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="DA6">
-        <v>3</v>
-      </c>
-      <c r="DD6">
-        <v>4</v>
-      </c>
-      <c r="DE6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DF6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="DK6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="DL6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="DM6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="DN6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DO6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DQ6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="DR6" s="6">
-        <v>0</v>
-      </c>
-      <c r="DU6">
-        <v>3</v>
-      </c>
-      <c r="DV6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DX6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DY6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EB6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="ED6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EF6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EH6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="EI6" s="6">
-        <v>0</v>
-      </c>
-      <c r="EL6">
-        <v>4</v>
-      </c>
-      <c r="EM6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="EN6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="EO6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="EP6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="ER6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="ES6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="ET6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EU6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EV6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EW6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EX6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EY6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FA6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="FB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="FE6">
-        <v>4</v>
-      </c>
-      <c r="FF6" t="s">
-        <v>18</v>
-      </c>
-      <c r="FG6" t="s">
-        <v>21</v>
-      </c>
-      <c r="FH6" t="s">
-        <v>17</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="FK6">
-        <v>3</v>
-      </c>
-      <c r="FN6">
-        <v>6</v>
-      </c>
-      <c r="FO6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="FP6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="FQ6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="FR6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="FS6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="FT6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="FU6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="FV6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="FW6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="FX6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FY6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GA6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="GB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="GE6">
-        <v>3</v>
-      </c>
-      <c r="GF6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="GG6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="GH6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="GI6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="GK6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="GL6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="GM6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="GN6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="GO6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GP6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GR6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="GS6" s="6">
-        <v>0</v>
-      </c>
-      <c r="GV6">
-        <v>3</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX6" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="HB6">
-        <v>3</v>
-      </c>
-      <c r="HE6">
-        <v>3</v>
-      </c>
-      <c r="HF6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="HG6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="HH6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="HK6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HM6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HO6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HP6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HQ6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HR6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HS6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="HV6" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:209" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
-      <c r="L7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7">
+        <v>55</v>
+      </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="BD7" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ7">
+        <v>55</v>
+      </c>
+      <c r="CA7">
+        <v>6</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CG7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CI7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CN7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO7" s="6">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>5</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB7">
+        <v>4</v>
+      </c>
+      <c r="DC7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="DD7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="DF7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="DG7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DH7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="DI7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DJ7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="DK7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DL7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DM7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DO7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DP7" s="6">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>5</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>19</v>
+      </c>
+      <c r="EC7">
+        <v>50</v>
+      </c>
+      <c r="ED7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="EE7" s="5"/>
+      <c r="EF7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="EG7" s="5"/>
+      <c r="EI7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJ7" s="10"/>
+      <c r="EK7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="EL7" s="5"/>
+      <c r="EM7" s="5"/>
+      <c r="EN7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="EP7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="EQ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>7</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="FF7">
+        <v>4</v>
+      </c>
+      <c r="FG7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FH7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="FI7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FJ7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="FK7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="FL7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="FM7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="FN7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FO7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FP7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="FQ7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="FS7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="FT7" s="6">
+        <v>0</v>
+      </c>
+      <c r="FW7">
+        <v>4</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>20</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="GJ7">
+        <v>4</v>
+      </c>
+      <c r="GK7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="GL7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="GM7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="GN7" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="GO7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="GP7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="GR7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="GS7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="GT7" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GV7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="GW7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="GX7" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="GZ7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="HA7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:209" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN8">
+        <v>55</v>
+      </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF8" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="BG8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI8" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="BJ8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN8">
+        <v>6</v>
+      </c>
+      <c r="CA8">
+        <v>7</v>
+      </c>
+      <c r="CB8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CC8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CG8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CI8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CJ8" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="V7" s="2" t="s">
+      <c r="CK8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CL8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CN8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="CO8">
+        <v>6</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CR8">
+        <v>55</v>
+      </c>
+      <c r="DB8">
+        <v>5</v>
+      </c>
+      <c r="DC8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="DD8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DF8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DG8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="DH8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="DI8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DJ8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="DK8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="DL8" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="DM8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="DP8">
+        <v>6</v>
+      </c>
+      <c r="DS8">
+        <v>6</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>19</v>
+      </c>
+      <c r="EP8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="EQ8">
+        <v>4</v>
+      </c>
+      <c r="ES8" t="s">
         <v>63</v>
       </c>
-      <c r="AC7">
-        <v>35</v>
-      </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="10" t="s">
+      <c r="ET8">
+        <v>55</v>
+      </c>
+      <c r="FF8">
+        <v>5</v>
+      </c>
+      <c r="FG8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="FH8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FI8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FJ8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="FK8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FL8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="FM8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="FN8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="FO8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="FP8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="FQ8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FS8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="FT8">
+        <v>6</v>
+      </c>
+      <c r="FW8">
+        <v>5</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>18</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>19</v>
+      </c>
+      <c r="GJ8">
+        <v>5</v>
+      </c>
+      <c r="GK8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="GL8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="GM8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="GN8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="GO8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="GP8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="GR8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="GS8" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="GT8" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU8" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="GV8" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="GW8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="GX8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="GZ8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="HA8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:209" x14ac:dyDescent="0.3">
+      <c r="AW9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX9">
+        <v>50</v>
+      </c>
+      <c r="AY9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="10" t="s">
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="5" t="s">
+      <c r="BB9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5" t="s">
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AP7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>5</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BH7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>4</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BU7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BV7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BZ7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="s">
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>63</v>
       </c>
-      <c r="CD7">
-        <v>35</v>
-      </c>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="5" t="s">
+      <c r="CA9">
+        <v>50</v>
+      </c>
+      <c r="CB9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="CH7" s="5"/>
-      <c r="CJ7" s="5" t="s">
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5" t="s">
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="CO7" s="5" t="s">
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="CQ7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CR7" s="6">
-        <v>0</v>
-      </c>
-      <c r="CU7">
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>63</v>
+      </c>
+      <c r="DB9">
+        <v>50</v>
+      </c>
+      <c r="DC9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DD9" s="5"/>
+      <c r="DE9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="DF9" s="5"/>
+      <c r="DH9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DK9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DL9" s="5"/>
+      <c r="DM9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DS9">
+        <v>7</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>19</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>63</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>63</v>
+      </c>
+      <c r="FF9">
+        <v>50</v>
+      </c>
+      <c r="FG9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="FH9" s="5"/>
+      <c r="FI9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="FJ9" s="5"/>
+      <c r="FK9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="FL9" s="5"/>
+      <c r="FM9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="FO9" s="5"/>
+      <c r="FP9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="FQ9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="FW9">
         <v>6</v>
       </c>
-      <c r="CV7" t="s">
+      <c r="FZ9" t="s">
         <v>18</v>
       </c>
-      <c r="CW7" t="s">
+      <c r="GA9" t="s">
         <v>21</v>
       </c>
-      <c r="CX7" t="s">
+      <c r="GB9" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC9" t="s">
         <v>19</v>
       </c>
-      <c r="DD7">
-        <v>5</v>
-      </c>
-      <c r="DE7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DG7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DH7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DJ7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DL7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="DM7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="DN7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DO7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DQ7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DR7" s="6">
-        <v>0</v>
-      </c>
-      <c r="DU7">
-        <v>4</v>
-      </c>
-      <c r="DV7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DX7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DY7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EB7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="ED7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EF7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EH7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EI7" s="6">
-        <v>0</v>
-      </c>
-      <c r="EL7">
-        <v>5</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="EN7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EP7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="ET7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EU7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EV7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EW7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EX7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EY7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FA7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="FB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="s">
+      <c r="GD9" t="s">
+        <v>19</v>
+      </c>
+      <c r="GJ9">
+        <v>6</v>
+      </c>
+      <c r="GK9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="GL9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="GM9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="GN9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="GO9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="GP9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="GR9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="GS9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="GT9" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="GV9" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="GW9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="GX9" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:209" x14ac:dyDescent="0.3">
+      <c r="DR10" t="s">
         <v>63</v>
       </c>
-      <c r="FE7">
-        <v>45</v>
-      </c>
-      <c r="FN7">
+      <c r="DS10">
+        <v>55</v>
+      </c>
+      <c r="DY10" s="5"/>
+      <c r="FV10" t="s">
+        <v>63</v>
+      </c>
+      <c r="FW10">
+        <v>60</v>
+      </c>
+      <c r="GJ10">
         <v>7</v>
       </c>
-      <c r="FO7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="FP7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="FQ7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="FR7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="FS7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="FT7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="FU7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="FV7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="FW7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="FX7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FY7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GA7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="GB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="GE7">
-        <v>4</v>
-      </c>
-      <c r="GF7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="GG7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="GH7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GI7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="GK7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="GL7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="GM7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="GN7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="GO7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GP7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GR7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="GS7" s="6">
-        <v>0</v>
-      </c>
-      <c r="GV7">
-        <v>4</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>19</v>
-      </c>
-      <c r="HE7">
-        <v>4</v>
-      </c>
-      <c r="HF7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="HG7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="HH7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="HK7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HM7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HO7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HP7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HQ7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HR7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HS7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="HV7" s="6">
-        <v>0</v>
+      <c r="GK10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="GL10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="GM10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="GN10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="GO10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="GP10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="GR10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="GS10" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="GT10" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="GU10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GV10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="GW10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="GX10" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="K8" t="s">
+    <row r="11" spans="1:209" x14ac:dyDescent="0.3">
+      <c r="GI11" t="s">
         <v>63</v>
       </c>
-      <c r="L8">
-        <v>35</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10" t="s">
+      <c r="GJ11">
+        <v>50</v>
+      </c>
+      <c r="GK11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="10" t="s">
+      <c r="GL11" s="5"/>
+      <c r="GM11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="5" t="s">
+      <c r="GN11" s="5"/>
+      <c r="GO11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
+      <c r="GP11" s="5"/>
+      <c r="GQ11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ8">
-        <v>4</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT8">
-        <v>35</v>
-      </c>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5" t="s">
+      <c r="GS11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AX8" s="5"/>
-      <c r="AZ8" s="5" t="s">
+      <c r="GT11" s="5"/>
+      <c r="GU11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH8">
-        <v>5</v>
-      </c>
-      <c r="BK8">
-        <v>5</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BO8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BS8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BT8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BV8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BW8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BX8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BZ8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA8">
-        <v>6</v>
-      </c>
-      <c r="CQ8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="CR8">
-        <v>4</v>
-      </c>
-      <c r="CU8">
-        <v>7</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>21</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>17</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>63</v>
-      </c>
-      <c r="DD8">
-        <v>35</v>
-      </c>
-      <c r="DE8" s="5"/>
-      <c r="DF8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="DH8" s="5"/>
-      <c r="DJ8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="DM8" s="5"/>
-      <c r="DN8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="DO8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="DQ8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="DR8">
-        <v>5</v>
-      </c>
-      <c r="DU8">
-        <v>5</v>
-      </c>
-      <c r="DV8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DW8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DX8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DY8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EB8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="EC8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="ED8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EE8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EF8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EH8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="EI8">
-        <v>6</v>
-      </c>
-      <c r="EL8">
-        <v>6</v>
-      </c>
-      <c r="EM8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="EN8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="EO8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="EP8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="ER8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="ES8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="ET8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EU8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EV8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EW8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EX8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EY8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FA8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="FB8">
-        <v>6</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>63</v>
-      </c>
-      <c r="FN8">
-        <v>35</v>
-      </c>
-      <c r="FO8" s="5"/>
-      <c r="FP8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="FR8" s="5"/>
-      <c r="FT8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="FW8" s="5"/>
-      <c r="FX8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="FY8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GA8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="GB8">
-        <v>5</v>
-      </c>
-      <c r="GE8">
-        <v>5</v>
-      </c>
-      <c r="GF8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="GG8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="GH8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="GI8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="GJ8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="GK8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="GL8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="GM8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="GN8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="GO8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GP8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="GR8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="GS8">
-        <v>6</v>
-      </c>
-      <c r="GV8">
-        <v>5</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX8" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>17</v>
-      </c>
-      <c r="HE8">
-        <v>5</v>
-      </c>
-      <c r="HF8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="HG8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="HH8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HI8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HK8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HL8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="HN8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HP8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HQ8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HR8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HS8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HU8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="HV8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="BJ9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK9">
-        <v>35</v>
-      </c>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO9" s="5"/>
-      <c r="BQ9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BV9" s="5"/>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>63</v>
-      </c>
-      <c r="CU9">
-        <v>45</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>63</v>
-      </c>
-      <c r="DU9">
-        <v>35</v>
-      </c>
-      <c r="DV9" s="5"/>
-      <c r="DW9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="DY9" s="5"/>
-      <c r="EA9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="ED9" s="5"/>
-      <c r="EE9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="EF9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>63</v>
-      </c>
-      <c r="EL9">
-        <v>35</v>
-      </c>
-      <c r="EM9" s="5"/>
-      <c r="EN9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="EP9" s="5"/>
-      <c r="ER9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="EU9" s="5"/>
-      <c r="EV9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="EW9" s="5"/>
-      <c r="EX9" s="5"/>
-      <c r="EY9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GD9" t="s">
-        <v>63</v>
-      </c>
-      <c r="GE9">
-        <v>35</v>
-      </c>
-      <c r="GF9" s="5"/>
-      <c r="GG9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GI9" s="5"/>
-      <c r="GK9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GN9" s="5"/>
-      <c r="GO9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GP9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="GV9">
-        <v>6</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>18</v>
-      </c>
-      <c r="GX9" t="s">
-        <v>21</v>
-      </c>
-      <c r="GY9" t="s">
-        <v>17</v>
-      </c>
-      <c r="HE9">
-        <v>6</v>
-      </c>
-      <c r="HF9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="HG9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="HH9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HI9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HK9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HL9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="HN9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HP9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HQ9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HR9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HS9" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="EM10" s="5"/>
-      <c r="EN10" s="5"/>
-      <c r="EP10" s="5"/>
-      <c r="ER10" s="5"/>
-      <c r="EU10" s="5"/>
-      <c r="EV10" s="5"/>
-      <c r="EW10" s="5"/>
-      <c r="EX10" s="5"/>
-      <c r="EY10" s="5"/>
-      <c r="GU10" t="s">
-        <v>63</v>
-      </c>
-      <c r="GV10">
-        <v>45</v>
-      </c>
-      <c r="HE10">
-        <v>7</v>
-      </c>
-      <c r="HF10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="HG10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="HH10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="HK10" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HM10" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HO10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HP10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HQ10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HR10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="HS10" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="HD11" t="s">
-        <v>63</v>
-      </c>
-      <c r="HE11">
-        <v>35</v>
-      </c>
-      <c r="HF11" s="5"/>
-      <c r="HG11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="HI11" s="5"/>
-      <c r="HK11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="HN11" s="5"/>
-      <c r="HO11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="HP11" s="5"/>
-      <c r="HQ11" s="5"/>
-      <c r="HR11" s="5"/>
-      <c r="HS11" s="5" t="s">
+      <c r="GV11" s="5"/>
+      <c r="GW11" s="5"/>
+      <c r="GX11" s="5" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Gates of Mansole/DifficultyCurve.xlsx
+++ b/Gates of Mansole/DifficultyCurve.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="11364" windowHeight="3048" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="11370" windowHeight="3045" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Difficulty Curve" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Chapter2" sheetId="3" r:id="rId3"/>
     <sheet name="Chapter3" sheetId="4" r:id="rId4"/>
     <sheet name="Chapter4" sheetId="5" r:id="rId5"/>
+    <sheet name="UnitCounts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AB4" authorId="0">
+    <comment ref="AB4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ4" authorId="0">
+    <comment ref="CJ4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG5" authorId="0">
+    <comment ref="BG5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT5" authorId="0">
+    <comment ref="BT5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DW5" authorId="0">
+    <comment ref="DW5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FN5" authorId="0">
+    <comment ref="FN5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB6" authorId="0">
+    <comment ref="CB6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="424">
   <si>
     <t>Level</t>
   </si>
@@ -1376,6 +1377,75 @@
   </si>
   <si>
     <t>TTOSSE</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Chapter 2</t>
+  </si>
+  <si>
+    <t>Chapter 3</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Shards Gained</t>
+  </si>
+  <si>
+    <t>Orbs Gained</t>
+  </si>
+  <si>
+    <t>Bonus Orbs</t>
+  </si>
+  <si>
+    <t>Expected Purchase</t>
+  </si>
+  <si>
+    <t>Upgrade Shepherd</t>
+  </si>
+  <si>
+    <t>Unlock Evangelist</t>
+  </si>
+  <si>
+    <t>Start with Shepherd</t>
+  </si>
+  <si>
+    <t>Unlock Shield</t>
+  </si>
+  <si>
+    <t>Unlock Elders</t>
+  </si>
+  <si>
+    <t>Unlock Orators</t>
+  </si>
+  <si>
+    <t>Unlock Teacher</t>
+  </si>
+  <si>
+    <t>Upgrade Evangelist</t>
+  </si>
+  <si>
+    <t>Upgrade Teacher</t>
+  </si>
+  <si>
+    <t>Upgrade Elder</t>
+  </si>
+  <si>
+    <t>Upgrade Orator</t>
+  </si>
+  <si>
+    <t>Unlock Ballista</t>
+  </si>
+  <si>
+    <t>Unlock Earthquake</t>
+  </si>
+  <si>
+    <t>Unlock Catapult</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1462,11 +1532,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1481,6 +1569,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,6 +1581,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1815,13 +1909,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181380224"/>
-        <c:axId val="181381760"/>
+        <c:axId val="285637320"/>
+        <c:axId val="285633792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181380224"/>
+        <c:axId val="285637320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181381760"/>
+        <c:crossAx val="285633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181381760"/>
+        <c:axId val="285633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181380224"/>
+        <c:crossAx val="285637320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1948,7 +2041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1983,7 +2076,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2198,12 +2291,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2243,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2269,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2295,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2321,7 +2414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2347,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2373,7 +2466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2390,7 +2483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2407,7 +2500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2424,7 +2517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2441,7 +2534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2461,7 +2554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2487,7 +2580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2513,7 +2606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2539,7 +2632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2565,7 +2658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>37</v>
       </c>
@@ -2576,7 +2669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +2691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>108</v>
       </c>
@@ -2609,27 +2702,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>38</v>
       </c>
@@ -2640,7 +2733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>43</v>
       </c>
@@ -2651,7 +2744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>105</v>
       </c>
@@ -2662,7 +2755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>108</v>
       </c>
@@ -2673,7 +2766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>109</v>
       </c>
@@ -2695,76 +2788,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI16"/>
   <sheetViews>
-    <sheetView topLeftCell="FR1" workbookViewId="0">
-      <selection activeCell="EQ12" sqref="EQ12"/>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BU28" sqref="BU28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="115" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="119" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="139" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="142" max="145" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="161" max="162" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="167" max="170" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="177" max="179" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="180" max="181" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="6.6640625" customWidth="1"/>
-    <col min="187" max="187" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="115" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="119" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="139" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="142" max="145" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="170" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="179" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="181" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="6.7109375" customWidth="1"/>
+    <col min="187" max="187" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -2901,7 +2995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:191" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:191" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -3442,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="BT3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BU3" t="s">
         <v>17</v>
@@ -3469,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>53</v>
@@ -3505,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="CY3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ3" t="s">
         <v>19</v>
@@ -3700,7 +3794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:191" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -3838,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="BT4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BU4" t="s">
         <v>17</v>
@@ -3862,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="CK4" s="2" t="s">
         <v>52</v>
@@ -3895,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="CY4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ4" t="s">
         <v>19</v>
@@ -4084,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:191" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -4228,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="BT5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BU5" t="s">
         <v>17</v>
@@ -4285,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="CY5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ5" t="s">
         <v>19</v>
@@ -4474,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:191" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -4612,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="BT6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BU6" t="s">
         <v>17</v>
@@ -4669,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="CY6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ6" t="s">
         <v>19</v>
@@ -4858,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4960,7 +5054,7 @@
         <v>17</v>
       </c>
       <c r="CJ7" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="CK7" s="2" t="s">
         <v>115</v>
@@ -4993,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="CY7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ7" t="s">
         <v>19</v>
@@ -5164,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:191" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
         <v>43</v>
       </c>
@@ -5211,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="CJ8" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="CK8" s="2" t="s">
         <v>113</v>
@@ -5244,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="CY8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CZ8" t="s">
         <v>19</v>
@@ -5376,7 +5470,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>39</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AF9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>12</v>
+      </c>
+      <c r="AJ9">
+        <v>54</v>
+      </c>
       <c r="AS9" s="5"/>
       <c r="BZ9" t="s">
         <v>63</v>
@@ -5439,7 +5605,73 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
+        <v>5</v>
+      </c>
+      <c r="AS10">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>11</v>
+      </c>
+      <c r="AU10">
+        <v>10</v>
+      </c>
+      <c r="AV10">
+        <v>15</v>
+      </c>
+      <c r="AW10">
+        <v>15</v>
+      </c>
+      <c r="AX10">
+        <v>73</v>
+      </c>
+      <c r="BD10">
+        <v>4</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>8</v>
+      </c>
+      <c r="BG10">
+        <v>8</v>
+      </c>
+      <c r="BH10">
+        <v>10</v>
+      </c>
+      <c r="BI10">
+        <v>12</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>14</v>
+      </c>
+      <c r="BL10">
+        <v>14</v>
+      </c>
+      <c r="BM10">
+        <v>20</v>
+      </c>
+      <c r="BN10">
+        <v>108</v>
+      </c>
+      <c r="BV10">
+        <v>8</v>
+      </c>
+      <c r="CD10">
+        <v>12</v>
+      </c>
       <c r="CM10" s="5"/>
       <c r="EF10" s="5"/>
       <c r="FI10" s="5"/>
@@ -5451,8 +5683,112 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:191" x14ac:dyDescent="0.3">
-      <c r="EF11" s="5"/>
+    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="CJ11">
+        <v>8</v>
+      </c>
+      <c r="CK11">
+        <v>9</v>
+      </c>
+      <c r="CL11">
+        <v>14</v>
+      </c>
+      <c r="CM11">
+        <v>12</v>
+      </c>
+      <c r="CN11">
+        <v>12</v>
+      </c>
+      <c r="CO11">
+        <v>16</v>
+      </c>
+      <c r="CP11">
+        <v>18</v>
+      </c>
+      <c r="CQ11">
+        <v>15</v>
+      </c>
+      <c r="CR11">
+        <v>24</v>
+      </c>
+      <c r="CS11">
+        <v>128</v>
+      </c>
+      <c r="DA11">
+        <v>12</v>
+      </c>
+      <c r="DG11">
+        <v>5</v>
+      </c>
+      <c r="DH11">
+        <v>5</v>
+      </c>
+      <c r="DI11">
+        <v>5</v>
+      </c>
+      <c r="DJ11">
+        <v>5</v>
+      </c>
+      <c r="DK11">
+        <v>8</v>
+      </c>
+      <c r="DL11">
+        <v>10</v>
+      </c>
+      <c r="DM11">
+        <v>10</v>
+      </c>
+      <c r="DN11">
+        <v>10</v>
+      </c>
+      <c r="DO11">
+        <v>13</v>
+      </c>
+      <c r="DP11">
+        <v>15</v>
+      </c>
+      <c r="DQ11">
+        <v>86</v>
+      </c>
+      <c r="DZ11">
+        <v>15</v>
+      </c>
+      <c r="EF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="EG11">
+        <v>5</v>
+      </c>
+      <c r="EH11">
+        <v>10</v>
+      </c>
+      <c r="EI11">
+        <v>10</v>
+      </c>
+      <c r="EJ11">
+        <v>10</v>
+      </c>
+      <c r="EK11">
+        <v>13</v>
+      </c>
+      <c r="EL11">
+        <v>10</v>
+      </c>
+      <c r="EM11">
+        <v>10</v>
+      </c>
+      <c r="EN11">
+        <v>15</v>
+      </c>
+      <c r="EO11">
+        <v>17</v>
+      </c>
+      <c r="EP11">
+        <v>105</v>
+      </c>
+      <c r="EY11">
+        <v>18</v>
+      </c>
       <c r="FD11" s="8"/>
       <c r="FE11" s="9"/>
       <c r="FF11" s="9"/>
@@ -5470,7 +5806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:191" x14ac:dyDescent="0.25">
       <c r="FD12" s="8"/>
       <c r="FE12" s="9"/>
       <c r="FF12" s="9"/>
@@ -5494,31 +5830,84 @@
       <c r="GH12" s="9"/>
       <c r="GI12" s="9"/>
     </row>
-    <row r="13" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:191" x14ac:dyDescent="0.25">
       <c r="FD13" s="8"/>
-      <c r="FE13" s="9"/>
-      <c r="FF13" s="9"/>
-      <c r="FG13" s="9"/>
-      <c r="FH13" s="9"/>
-      <c r="FI13" s="9"/>
-      <c r="FJ13" s="9"/>
-      <c r="FK13" s="9"/>
-      <c r="FL13" s="9"/>
-      <c r="FM13" s="9"/>
-      <c r="FN13" s="9"/>
-      <c r="FY13" s="9"/>
-      <c r="FZ13" s="9"/>
-      <c r="GA13" s="9"/>
-      <c r="GB13" s="9"/>
-      <c r="GC13" s="9"/>
-      <c r="GD13" s="9"/>
-      <c r="GE13" s="9"/>
-      <c r="GF13" s="9"/>
-      <c r="GG13" s="9"/>
+      <c r="FE13" s="9">
+        <v>6</v>
+      </c>
+      <c r="FF13" s="9">
+        <v>6</v>
+      </c>
+      <c r="FG13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FH13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FI13" s="9">
+        <v>16</v>
+      </c>
+      <c r="FJ13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FK13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FL13" s="9">
+        <v>18</v>
+      </c>
+      <c r="FM13" s="9">
+        <v>20</v>
+      </c>
+      <c r="FN13" s="9">
+        <v>10</v>
+      </c>
+      <c r="FO13" s="5">
+        <v>136</v>
+      </c>
+      <c r="FU13">
+        <v>12</v>
+      </c>
+      <c r="FV13">
+        <v>12</v>
+      </c>
+      <c r="FW13">
+        <v>16</v>
+      </c>
+      <c r="FX13">
+        <v>12</v>
+      </c>
+      <c r="FY13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FZ13" s="9">
+        <v>12</v>
+      </c>
+      <c r="GA13" s="9">
+        <v>18</v>
+      </c>
+      <c r="GB13" s="9">
+        <v>12</v>
+      </c>
+      <c r="GC13" s="9">
+        <v>18</v>
+      </c>
+      <c r="GD13" s="9">
+        <v>24</v>
+      </c>
+      <c r="GE13" s="9">
+        <v>18</v>
+      </c>
+      <c r="GF13" s="9">
+        <v>15</v>
+      </c>
+      <c r="GG13" s="9">
+        <v>181</v>
+      </c>
       <c r="GH13" s="9"/>
       <c r="GI13" s="9"/>
     </row>
-    <row r="14" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
       <c r="FD14" s="8"/>
       <c r="FE14" s="9"/>
       <c r="FF14" s="9"/>
@@ -5542,7 +5931,7 @@
       <c r="GH14" s="9"/>
       <c r="GI14" s="9"/>
     </row>
-    <row r="15" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:191" x14ac:dyDescent="0.25">
       <c r="FD15" s="8"/>
       <c r="FE15" s="9"/>
       <c r="FF15" s="9"/>
@@ -5555,7 +5944,7 @@
       <c r="FM15" s="9"/>
       <c r="FN15" s="9"/>
     </row>
-    <row r="16" spans="1:191" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:191" x14ac:dyDescent="0.25">
       <c r="FD16" s="8"/>
       <c r="FE16" s="8"/>
       <c r="FF16" s="8"/>
@@ -5579,66 +5968,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GC9"/>
   <sheetViews>
-    <sheetView topLeftCell="FL1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="132" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="171" max="172" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="173" max="174" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="175" max="179" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="172" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="174" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="175" max="179" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -5775,7 +6164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:185" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -6116,7 +6505,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:185" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>139</v>
       </c>
@@ -6508,7 +6897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:185" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -6876,7 +7265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:185" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7244,7 +7633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:185" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
@@ -7612,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -7915,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:185" x14ac:dyDescent="0.25">
       <c r="M8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8196,7 +8585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.25">
       <c r="AH9" t="s">
         <v>63</v>
       </c>
@@ -8307,112 +8696,111 @@
       <selection activeCell="GV28" sqref="GV28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="12" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="79" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="112" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="120" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="147" max="148" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="79" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="112" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="2" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="174" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="2" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="196" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="197" max="198" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="199" max="200" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="197" max="198" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="199" max="200" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="10" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -8549,7 +8937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -8989,7 +9377,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9489,7 +9877,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9971,7 +10359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -10453,7 +10841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -10935,7 +11323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -11310,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:210" x14ac:dyDescent="0.25">
       <c r="N8" s="6" t="s">
         <v>43</v>
       </c>
@@ -11544,7 +11932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:210" x14ac:dyDescent="0.25">
       <c r="AP9" t="s">
         <v>63</v>
       </c>
@@ -11626,7 +12014,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:210" x14ac:dyDescent="0.25">
       <c r="GL10">
         <v>7</v>
       </c>
@@ -11670,7 +12058,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:210" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:210" x14ac:dyDescent="0.25">
       <c r="GK11" t="s">
         <v>63</v>
       </c>
@@ -11707,120 +12095,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="GM10" sqref="GM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="10" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="10" customWidth="1"/>
-    <col min="35" max="35" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="62" width="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="10" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="80" max="81" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="87" max="89" width="10" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="109" max="110" width="10" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="113" max="116" width="10" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="118" max="119" width="10" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="122" max="123" width="10" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="132" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="135" max="137" width="10" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="140" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="141" max="142" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="142" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="10" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="154" max="155" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="2" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="161" max="162" width="10" bestFit="1" customWidth="1"/>
-    <col min="163" max="166" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="163" max="166" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="167" max="168" width="10" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="170" max="172" width="10" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="6" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="181" max="183" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="185" max="186" width="2" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="6" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="10" bestFit="1" customWidth="1"/>
-    <col min="195" max="196" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="203" max="204" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="206" max="207" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="204" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="206" max="207" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="6" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="7.44140625" customWidth="1"/>
-    <col min="211" max="211" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.42578125" customWidth="1"/>
+    <col min="211" max="211" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -11957,7 +12343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -12364,7 +12750,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -12861,7 +13247,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -13349,7 +13735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -13837,7 +14223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -14325,7 +14711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -14713,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:209" x14ac:dyDescent="0.25">
       <c r="O8" s="6" t="s">
         <v>43</v>
       </c>
@@ -15009,7 +15395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:209" x14ac:dyDescent="0.25">
       <c r="AW9" t="s">
         <v>63</v>
       </c>
@@ -15198,7 +15584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:209" x14ac:dyDescent="0.25">
       <c r="DR10" t="s">
         <v>63</v>
       </c>
@@ -15258,7 +15644,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:209" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:209" x14ac:dyDescent="0.25">
       <c r="GI11" t="s">
         <v>63</v>
       </c>
@@ -15296,4 +15682,2732 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="12">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12">
+        <v>10</v>
+      </c>
+      <c r="N1" s="12">
+        <v>11</v>
+      </c>
+      <c r="O1" s="12">
+        <v>12</v>
+      </c>
+      <c r="P1" s="12">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>14</v>
+      </c>
+      <c r="R1" s="12">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>SUM(D3:R3)</f>
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <f>C3 * 2</f>
+        <v>36</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <f>_xlfn.CEILING.MATH(T3 * 0.05) + U3</f>
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="0">SUM(D4:R4)</f>
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T65" si="1">C4 * 2</f>
+        <v>78</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4" si="2">_xlfn.CEILING.MATH(T4 * 0.05) + U4</f>
+        <v>7</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f>_xlfn.CEILING.MATH(T5 * 0.05) + U5</f>
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f>_xlfn.CEILING.MATH(T6 * 0.05) + U6</f>
+        <v>13</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f>_xlfn.CEILING.MATH(T7 * 0.05) + U7</f>
+        <v>17</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f>(T8*0.5) + U8</f>
+        <v>13</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <f>(T9*0.5) + U9</f>
+        <v>17</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <f>_xlfn.CEILING.MATH(T10 * 0.05) + U10</f>
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <f>(T11*0.5) + U11</f>
+        <v>18</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <f>_xlfn.CEILING.MATH(T12 * 0.05) + U12</f>
+        <v>16</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <f>(T13*0.5) + U13</f>
+        <v>21</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <f>_xlfn.CEILING.MATH(T14 * 0.05) + U14</f>
+        <v>17</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <f>(T15*0.5) + U15</f>
+        <v>25</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D16" s="9">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12</v>
+      </c>
+      <c r="K16" s="9">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <f>_xlfn.CEILING.MATH(T16 * 0.05) + U16</f>
+        <v>20</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9">
+        <v>18</v>
+      </c>
+      <c r="K17" s="9">
+        <v>12</v>
+      </c>
+      <c r="L17" s="9">
+        <v>18</v>
+      </c>
+      <c r="M17" s="9">
+        <v>24</v>
+      </c>
+      <c r="N17" s="9">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <f>_xlfn.CEILING.MATH(T17 * 0.05) + U17</f>
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>SUM(D19:R19)</f>
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <f>_xlfn.CEILING.MATH(T19 * 0.05) + U19</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C33" si="3">SUM(D20:R20)</f>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="W20">
+        <f>(T20*0.5) + U20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="U21">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <f>(T21*0.5) + U21</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <f>(T22*0.5) + U22</f>
+        <v>28</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="U23">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>_xlfn.CEILING.MATH(T23 * 0.05) + U23</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <f>_xlfn.CEILING.MATH(T24 * 0.05) + U24</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <f>_xlfn.CEILING.MATH(T25 * 0.05) + U25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="U26">
+        <v>11</v>
+      </c>
+      <c r="W26">
+        <f>_xlfn.CEILING.MATH(T26 * 0.05) + U26</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="U27">
+        <v>11</v>
+      </c>
+      <c r="W27">
+        <f>(T27*0.5) + U27</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U28">
+        <v>12</v>
+      </c>
+      <c r="W28">
+        <f>(T28*0.5) + U28</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>24</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="U29">
+        <v>11</v>
+      </c>
+      <c r="W29">
+        <f>_xlfn.CEILING.MATH(T29 * 0.05) + U29</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="U30">
+        <v>11</v>
+      </c>
+      <c r="W30">
+        <f>(T30*0.5) + U30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="U31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <f>(T31*0.5) + U31</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U32">
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <f>(T32*0.5) + U32</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>18</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>18</v>
+      </c>
+      <c r="O33">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <v>21</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="U33">
+        <v>13</v>
+      </c>
+      <c r="W33">
+        <f>_xlfn.CEILING.MATH(T33 * 0.05) + U33</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>SUM(D35:R35)</f>
+        <v>126</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="U35">
+        <v>11</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W45" si="4">_xlfn.CEILING.MATH(T35 * 0.05) + U35</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C49" si="5">SUM(D36:R36)</f>
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <f>(T36*0.5) + U36</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="U37">
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <f>(T38*0.5) + U38</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="13">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>21</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="U39">
+        <v>13</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="13">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="U40">
+        <v>12</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="13">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="U41">
+        <v>12</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="13">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="U42">
+        <v>13</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="13">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="U43">
+        <v>13</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="13">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="U44">
+        <v>14</v>
+      </c>
+      <c r="W44">
+        <f>(T44*0.5) + U44</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="13">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>16</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="U45">
+        <v>13</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="13">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="U46">
+        <v>13</v>
+      </c>
+      <c r="W46">
+        <f>(T46*0.5) + U46</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U47">
+        <v>14</v>
+      </c>
+      <c r="W47">
+        <f>(T47*0.5) + U47</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="13">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="U48">
+        <v>14</v>
+      </c>
+      <c r="W48">
+        <f>(T48*0.5) + U48</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="13">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <v>24</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <v>34</v>
+      </c>
+      <c r="N49">
+        <v>34</v>
+      </c>
+      <c r="O49">
+        <v>32</v>
+      </c>
+      <c r="P49">
+        <v>42</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="U49">
+        <v>15</v>
+      </c>
+      <c r="W49">
+        <f t="shared" ref="W49:W51" si="6">_xlfn.CEILING.MATH(T49 * 0.05) + U49</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f>SUM(D51:R51)</f>
+        <v>204</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>18</v>
+      </c>
+      <c r="N51">
+        <v>24</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="U51">
+        <v>14</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="13">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:C65" si="7">SUM(D52:R52)</f>
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="U52">
+        <v>14</v>
+      </c>
+      <c r="W52">
+        <f>(T52*0.5) + U52</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" s="13">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U53">
+        <v>15</v>
+      </c>
+      <c r="W53">
+        <f>(T53*0.5) + U53</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" s="13">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U54">
+        <v>15</v>
+      </c>
+      <c r="W54">
+        <f>(T54*0.5) + U54</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="13">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>18</v>
+      </c>
+      <c r="G55">
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <v>28</v>
+      </c>
+      <c r="I55">
+        <v>28</v>
+      </c>
+      <c r="J55">
+        <v>16</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>30</v>
+      </c>
+      <c r="N55">
+        <v>30</v>
+      </c>
+      <c r="O55">
+        <v>26</v>
+      </c>
+      <c r="P55">
+        <v>32</v>
+      </c>
+      <c r="Q55">
+        <v>31</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>682</v>
+      </c>
+      <c r="U55">
+        <v>16</v>
+      </c>
+      <c r="W55">
+        <f t="shared" ref="W55" si="8">_xlfn.CEILING.MATH(T55 * 0.05) + U55</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" s="13">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="U56">
+        <v>15</v>
+      </c>
+      <c r="W56">
+        <f>(T56*0.5) + U56</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" s="13">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>18</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>24</v>
+      </c>
+      <c r="J57">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>32</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="U57">
+        <v>15</v>
+      </c>
+      <c r="W57">
+        <f t="shared" ref="W57" si="9">_xlfn.CEILING.MATH(T57 * 0.05) + U57</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" s="13">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U58">
+        <v>16</v>
+      </c>
+      <c r="W58">
+        <f>(T58*0.5) + U58</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" s="13">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>28</v>
+      </c>
+      <c r="G59">
+        <v>28</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59">
+        <v>24</v>
+      </c>
+      <c r="J59">
+        <v>34</v>
+      </c>
+      <c r="K59">
+        <v>34</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <v>32</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="U59">
+        <v>16</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59" si="10">_xlfn.CEILING.MATH(T59 * 0.05) + U59</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" s="13">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="U60">
+        <v>17</v>
+      </c>
+      <c r="W60">
+        <f>(T60*0.5) + U60</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" s="13">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>18</v>
+      </c>
+      <c r="L61">
+        <v>18</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>20</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="U61">
+        <v>16</v>
+      </c>
+      <c r="W61">
+        <f t="shared" ref="W61" si="11">_xlfn.CEILING.MATH(T61 * 0.05) + U61</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" s="13">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="U62">
+        <v>17</v>
+      </c>
+      <c r="W62">
+        <f>(T62*0.5) + U62</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" s="13">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>22</v>
+      </c>
+      <c r="G63">
+        <v>22</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>28</v>
+      </c>
+      <c r="J63">
+        <v>34</v>
+      </c>
+      <c r="K63">
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>26</v>
+      </c>
+      <c r="N63">
+        <v>32</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="U63">
+        <v>18</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ref="W63" si="12">_xlfn.CEILING.MATH(T63 * 0.05) + U63</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" s="13">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>37</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="U64">
+        <v>19</v>
+      </c>
+      <c r="W64">
+        <f>(T64*0.5) + U64</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" s="13">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="7"/>
+        <v>516</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>38</v>
+      </c>
+      <c r="F65">
+        <v>36</v>
+      </c>
+      <c r="G65">
+        <v>36</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>21</v>
+      </c>
+      <c r="J65">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <v>36</v>
+      </c>
+      <c r="M65">
+        <v>31</v>
+      </c>
+      <c r="N65">
+        <v>36</v>
+      </c>
+      <c r="O65">
+        <v>36</v>
+      </c>
+      <c r="P65">
+        <v>44</v>
+      </c>
+      <c r="Q65">
+        <v>48</v>
+      </c>
+      <c r="R65">
+        <v>36</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="U65">
+        <v>20</v>
+      </c>
+      <c r="W65">
+        <f t="shared" ref="W65" si="13">_xlfn.CEILING.MATH(T65 * 0.05) + U65</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gates of Mansole/DifficultyCurve.xlsx
+++ b/Gates of Mansole/DifficultyCurve.xlsx
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="429">
   <si>
     <t>Level</t>
   </si>
@@ -1446,6 +1446,21 @@
   </si>
   <si>
     <t>Unlock Catapult</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Catapult</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1910,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285637320"/>
-        <c:axId val="285633792"/>
+        <c:axId val="299327688"/>
+        <c:axId val="299326512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285637320"/>
+        <c:axId val="299327688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285633792"/>
+        <c:crossAx val="299326512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285633792"/>
+        <c:axId val="299326512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285637320"/>
+        <c:crossAx val="299327688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15686,10 +15701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15700,9 +15715,17 @@
     <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C1" s="12" t="s">
         <v>402</v>
       </c>
@@ -15767,15 +15790,42 @@
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>401</v>
       </c>
       <c r="Y2" t="s">
         <v>412</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15809,17 +15859,47 @@
         <v>36</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <f>_xlfn.CEILING.MATH(T3 * 0.05) + U3</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="s">
         <v>410</v>
       </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>15</v>
+      </c>
+      <c r="AH3">
+        <v>15</v>
+      </c>
+      <c r="AI3">
+        <v>12</v>
+      </c>
+      <c r="AJ3">
+        <v>30</v>
+      </c>
+      <c r="AK3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15865,8 +15945,38 @@
       <c r="Y4" t="s">
         <v>411</v>
       </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>20</v>
+      </c>
+      <c r="AG4">
+        <v>20</v>
+      </c>
+      <c r="AH4">
+        <v>20</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
+        <v>50</v>
+      </c>
+      <c r="AK4">
+        <v>60</v>
+      </c>
+      <c r="AL4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15915,8 +16025,38 @@
       <c r="Y5" t="s">
         <v>417</v>
       </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>30</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>30</v>
+      </c>
+      <c r="AG5">
+        <v>30</v>
+      </c>
+      <c r="AH5">
+        <v>30</v>
+      </c>
+      <c r="AI5">
+        <v>50</v>
+      </c>
+      <c r="AJ5">
+        <v>70</v>
+      </c>
+      <c r="AK5">
+        <v>80</v>
+      </c>
+      <c r="AL5">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15965,8 +16105,26 @@
       <c r="Y6" t="s">
         <v>413</v>
       </c>
+      <c r="Z6">
+        <v>12</v>
+      </c>
+      <c r="AD6">
+        <v>40</v>
+      </c>
+      <c r="AE6">
+        <v>40</v>
+      </c>
+      <c r="AF6">
+        <v>40</v>
+      </c>
+      <c r="AG6">
+        <v>40</v>
+      </c>
+      <c r="AH6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16021,8 +16179,11 @@
       <c r="Y7" t="s">
         <v>416</v>
       </c>
+      <c r="Z7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16041,17 +16202,20 @@
         <v>16</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W8">
         <f>(T8*0.5) + U8</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="s">
         <v>414</v>
       </c>
+      <c r="Z8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16079,8 +16243,11 @@
       <c r="Y9" t="s">
         <v>415</v>
       </c>
+      <c r="Z9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16129,11 +16296,8 @@
         <f>_xlfn.CEILING.MATH(T10 * 0.05) + U10</f>
         <v>19</v>
       </c>
-      <c r="Y10" t="s">
-        <v>418</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16159,10 +16323,13 @@
         <v>18</v>
       </c>
       <c r="Y11" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16214,11 +16381,8 @@
         <f>_xlfn.CEILING.MATH(T12 * 0.05) + U12</f>
         <v>16</v>
       </c>
-      <c r="Y12" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16244,10 +16408,13 @@
         <v>21</v>
       </c>
       <c r="Y13" t="s">
-        <v>417</v>
+        <v>419</v>
+      </c>
+      <c r="Z13">
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16299,11 +16466,8 @@
         <f>_xlfn.CEILING.MATH(T14 * 0.05) + U14</f>
         <v>17</v>
       </c>
-      <c r="Y14" t="s">
-        <v>422</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16329,10 +16493,13 @@
         <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>410</v>
+        <v>420</v>
+      </c>
+      <c r="Z15">
+        <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16384,11 +16551,8 @@
         <f>_xlfn.CEILING.MATH(T16 * 0.05) + U16</f>
         <v>20</v>
       </c>
-      <c r="Y16" t="s">
-        <v>417</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16447,15 +16611,18 @@
         <v>27</v>
       </c>
       <c r="Y17" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="Z17">
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -16504,8 +16671,14 @@
         <f>_xlfn.CEILING.MATH(T19 * 0.05) + U19</f>
         <v>13</v>
       </c>
+      <c r="Y19" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -16531,7 +16704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -16556,8 +16729,14 @@
         <f>(T21*0.5) + U21</f>
         <v>24</v>
       </c>
+      <c r="Y21" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z21">
+        <v>25</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -16582,11 +16761,8 @@
         <f>(T22*0.5) + U22</f>
         <v>28</v>
       </c>
-      <c r="Y22" t="s">
-        <v>421</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -16644,8 +16820,14 @@
         <f>_xlfn.CEILING.MATH(T23 * 0.05) + U23</f>
         <v>27</v>
       </c>
+      <c r="Y23" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z23">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -16695,7 +16877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -16745,7 +16927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -16795,7 +16977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -16821,7 +17003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -16846,8 +17028,14 @@
         <f>(T28*0.5) + U28</f>
         <v>30</v>
       </c>
+      <c r="Y28" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z28">
+        <v>50</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -16900,7 +17088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -16926,7 +17114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -16952,7 +17140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
